--- a/spliced/walkingToRunning/2023-03-30_14-27-51/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-30_14-27-51/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2323529118577299</v>
+        <v>0.8970553824457185</v>
       </c>
       <c r="B2" t="n">
-        <v>1.99577405316345</v>
+        <v>-0.2614919603881221</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.971809049310575</v>
+        <v>-0.8384511420282582</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.42024119551909</v>
+        <v>-0.4747457169627652</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.5193942967107517</v>
+        <v>0.1235830856455553</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.513404460276592</v>
+        <v>2.941044032415826</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1340822670293074</v>
+        <v>0.6183352183740025</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.154626976635499</v>
+        <v>-0.2533354612730362</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.524474680423737</v>
+        <v>0.0438180289910041</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.4547065528015019</v>
+        <v>0.2323529118577299</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.6670010999097716</v>
+        <v>1.99577405316345</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1219344166881118</v>
+        <v>-1.971809049310575</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.1632935243769215</v>
+        <v>0.42024119551909</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.267501022350991</v>
+        <v>-0.5193942967107517</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.733805928316158</v>
+        <v>-1.513404460276592</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.678417857420652</v>
+        <v>0.1340822670293074</v>
       </c>
       <c r="B7" t="n">
-        <v>1.337361679238797</v>
+        <v>-0.154626976635499</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.577607195256125</v>
+        <v>-1.524474680423737</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.108878275600511</v>
+        <v>-0.4547065528015019</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.9978605397676845</v>
+        <v>-0.6670010999097716</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5690611009880358</v>
+        <v>0.1219344166881118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.319620092036361</v>
+        <v>-0.1632935243769215</v>
       </c>
       <c r="B9" t="n">
-        <v>2.702669687190279</v>
+        <v>-1.267501022350991</v>
       </c>
       <c r="C9" t="n">
-        <v>3.955988294997444</v>
+        <v>-1.733805928316158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-4.884191094818762</v>
+        <v>1.678417857420652</v>
       </c>
       <c r="B10" t="n">
-        <v>2.429627870099019</v>
+        <v>1.337361679238797</v>
       </c>
       <c r="C10" t="n">
-        <v>5.183373525991279</v>
+        <v>-3.577607195256125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9754154722569472</v>
+        <v>-1.108878275600511</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.997867519572641</v>
+        <v>-0.9978605397676845</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.7411238864316898</v>
+        <v>0.5690611009880358</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.564180643376662</v>
+        <v>-1.319620092036361</v>
       </c>
       <c r="B12" t="n">
-        <v>-3.320737330590262</v>
+        <v>2.702669687190279</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.21195284693929</v>
+        <v>3.955988294997444</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.649666024466685</v>
+        <v>-4.884191094818762</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.874780806444464</v>
+        <v>2.429627870099019</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.4834878709704054</v>
+        <v>5.183373525991279</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.0025165415669</v>
+        <v>0.9754154722569472</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4837598439495385</v>
+        <v>-2.997867519572641</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.280407503113078</v>
+        <v>-0.7411238864316898</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-4.006519524727852</v>
+        <v>2.564180643376662</v>
       </c>
       <c r="B15" t="n">
-        <v>1.548193707304488</v>
+        <v>-3.320737330590262</v>
       </c>
       <c r="C15" t="n">
-        <v>2.943372968900025</v>
+        <v>-3.21195284693929</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-9.41962250814602</v>
+        <v>4.649666024466685</v>
       </c>
       <c r="B16" t="n">
-        <v>4.90418978969931</v>
+        <v>-1.874780806444464</v>
       </c>
       <c r="C16" t="n">
-        <v>3.12689200195215</v>
+        <v>-0.4834878709704054</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.074812318308926</v>
+        <v>1.0025165415669</v>
       </c>
       <c r="B17" t="n">
-        <v>-4.687652131258382</v>
+        <v>0.4837598439495385</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3980861830256872</v>
+        <v>-3.280407503113078</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.882893306218964</v>
+        <v>-4.006519524727852</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.573564957764209</v>
+        <v>1.548193707304488</v>
       </c>
       <c r="C18" t="n">
-        <v>-5.314060277289736</v>
+        <v>2.943372968900025</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.499037447622277</v>
+        <v>-9.41962250814602</v>
       </c>
       <c r="B19" t="n">
-        <v>4.13717439619163</v>
+        <v>4.90418978969931</v>
       </c>
       <c r="C19" t="n">
-        <v>-5.053133794816869</v>
+        <v>3.12689200195215</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.6406787679356816</v>
+        <v>-1.074812318308926</v>
       </c>
       <c r="B20" t="n">
-        <v>1.996182547282352</v>
+        <v>-4.687652131258382</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.02198917330320072</v>
+        <v>0.3980861830256872</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>2.882893306218964</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-2.573564957764209</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-5.314060277289736</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6.499037447622277</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4.13717439619163</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-5.053133794816869</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.6406787679356816</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.996182547282352</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.02198917330320072</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>-5.474647755340023</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>-0.02923721226595877</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>3.930300022585936</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-3.350842246564774</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7.508822642393016</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.570750523421729</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-1.041599551499903</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6.251372620210817</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.606606071278196</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4.526515125470683</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-2.61241545313501</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-4.543736482070679</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5.028566198833909</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.9918887261616698</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-6.872307486453308</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.376901606381959</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.241255387916403</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.1712141006680019</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-8.190219378067249</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-11.05336972818532</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1851687067646206</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.4136780055901301</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-15.04960784669652</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.795090385412704</v>
       </c>
     </row>
   </sheetData>
